--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3530253333333334</v>
+        <v>0.300108</v>
       </c>
       <c r="N2">
-        <v>1.059076</v>
+        <v>0.900324</v>
       </c>
       <c r="O2">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="P2">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="Q2">
-        <v>7.044896827827556</v>
+        <v>8.770189932168</v>
       </c>
       <c r="R2">
-        <v>63.40407145044801</v>
+        <v>78.93170938951201</v>
       </c>
       <c r="S2">
-        <v>0.0006116709129917864</v>
+        <v>0.0007330418050978718</v>
       </c>
       <c r="T2">
-        <v>0.0006116709129917864</v>
+        <v>0.0007330418050978716</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.932033</v>
       </c>
       <c r="O3">
-        <v>0.3410998794937062</v>
+        <v>0.3338857288757714</v>
       </c>
       <c r="P3">
-        <v>0.3410998794937063</v>
+        <v>0.3338857288757713</v>
       </c>
       <c r="Q3">
-        <v>46.11138132872044</v>
+        <v>67.52596401523932</v>
       </c>
       <c r="R3">
-        <v>415.002431958484</v>
+        <v>607.733676137154</v>
       </c>
       <c r="S3">
-        <v>0.004003605930074132</v>
+        <v>0.005644045902717261</v>
       </c>
       <c r="T3">
-        <v>0.004003605930074133</v>
+        <v>0.005644045902717261</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.033858333333334</v>
+        <v>4.274320333333333</v>
       </c>
       <c r="N4">
-        <v>12.101575</v>
+        <v>12.822961</v>
       </c>
       <c r="O4">
-        <v>0.5954740512897225</v>
+        <v>0.617625980694349</v>
       </c>
       <c r="P4">
-        <v>0.5954740512897225</v>
+        <v>0.6176259806943489</v>
       </c>
       <c r="Q4">
-        <v>80.49880020812223</v>
+        <v>124.9103694478686</v>
       </c>
       <c r="R4">
-        <v>724.4892018731</v>
+        <v>1124.193325030818</v>
       </c>
       <c r="S4">
-        <v>0.006989282571683787</v>
+        <v>0.01044042642219869</v>
       </c>
       <c r="T4">
-        <v>0.006989282571683787</v>
+        <v>0.01044042642219869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07663533333333333</v>
+        <v>0.03545833333333333</v>
       </c>
       <c r="N5">
-        <v>0.229906</v>
+        <v>0.106375</v>
       </c>
       <c r="O5">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322663</v>
       </c>
       <c r="P5">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322661</v>
       </c>
       <c r="Q5">
-        <v>1.529318056587556</v>
+        <v>1.036214689416667</v>
       </c>
       <c r="R5">
-        <v>13.763862509288</v>
+        <v>9.32593220475</v>
       </c>
       <c r="S5">
-        <v>0.0001327825509427932</v>
+        <v>8.661028920398227E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001327825509427932</v>
+        <v>8.661028920398224E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3530253333333334</v>
+        <v>0.300108</v>
       </c>
       <c r="N6">
-        <v>1.059076</v>
+        <v>0.900324</v>
       </c>
       <c r="O6">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="P6">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="Q6">
-        <v>578.0236795613645</v>
+        <v>491.3798360810799</v>
       </c>
       <c r="R6">
-        <v>5202.21311605228</v>
+        <v>4422.41852472972</v>
       </c>
       <c r="S6">
-        <v>0.05018672103352852</v>
+        <v>0.04107117004483493</v>
       </c>
       <c r="T6">
-        <v>0.05018672103352852</v>
+        <v>0.04107117004483492</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>6.932033</v>
       </c>
       <c r="O7">
-        <v>0.3410998794937062</v>
+        <v>0.3338857288757714</v>
       </c>
       <c r="P7">
-        <v>0.3410998794937063</v>
+        <v>0.3338857288757713</v>
       </c>
       <c r="Q7">
         <v>3783.372696105665</v>
@@ -883,10 +883,10 @@
         <v>34050.35426495099</v>
       </c>
       <c r="S7">
-        <v>0.3284901238119018</v>
+        <v>0.3162269428554689</v>
       </c>
       <c r="T7">
-        <v>0.3284901238119019</v>
+        <v>0.3162269428554689</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.033858333333334</v>
+        <v>4.274320333333333</v>
       </c>
       <c r="N8">
-        <v>12.101575</v>
+        <v>12.822961</v>
       </c>
       <c r="O8">
-        <v>0.5954740512897225</v>
+        <v>0.617625980694349</v>
       </c>
       <c r="P8">
-        <v>0.5954740512897225</v>
+        <v>0.6176259806943489</v>
       </c>
       <c r="Q8">
-        <v>6604.811090033028</v>
+        <v>6998.529945057647</v>
       </c>
       <c r="R8">
-        <v>59443.29981029725</v>
+        <v>62986.76950551882</v>
       </c>
       <c r="S8">
-        <v>0.5734606096175562</v>
+        <v>0.5849605383276316</v>
       </c>
       <c r="T8">
-        <v>0.5734606096175563</v>
+        <v>0.5849605383276314</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07663533333333333</v>
+        <v>0.03545833333333333</v>
       </c>
       <c r="N9">
-        <v>0.229906</v>
+        <v>0.106375</v>
       </c>
       <c r="O9">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322663</v>
       </c>
       <c r="P9">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322661</v>
       </c>
       <c r="Q9">
-        <v>125.4783528974644</v>
+        <v>58.05746604902777</v>
       </c>
       <c r="R9">
-        <v>1129.30517607718</v>
+        <v>522.51719444125</v>
       </c>
       <c r="S9">
-        <v>0.01089461784228366</v>
+        <v>0.004852637176748944</v>
       </c>
       <c r="T9">
-        <v>0.01089461784228366</v>
+        <v>0.004852637176748942</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3530253333333334</v>
+        <v>0.300108</v>
       </c>
       <c r="N10">
-        <v>1.059076</v>
+        <v>0.900324</v>
       </c>
       <c r="O10">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="P10">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="Q10">
-        <v>8.965474905124445</v>
+        <v>11.22167634968</v>
       </c>
       <c r="R10">
-        <v>80.68927414612001</v>
+        <v>100.99508714712</v>
       </c>
       <c r="S10">
-        <v>0.0007784244900451582</v>
+        <v>0.0009379452384972534</v>
       </c>
       <c r="T10">
-        <v>0.0007784244900451584</v>
+        <v>0.0009379452384972531</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.932033</v>
       </c>
       <c r="O11">
-        <v>0.3410998794937062</v>
+        <v>0.3338857288757714</v>
       </c>
       <c r="P11">
-        <v>0.3410998794937063</v>
+        <v>0.3338857288757713</v>
       </c>
       <c r="Q11">
-        <v>58.68225500624555</v>
+        <v>86.40115199783777</v>
       </c>
       <c r="R11">
-        <v>528.14029505621</v>
+        <v>777.61036798054</v>
       </c>
       <c r="S11">
-        <v>0.005095068014950021</v>
+        <v>0.007221697239500259</v>
       </c>
       <c r="T11">
-        <v>0.005095068014950022</v>
+        <v>0.007221697239500257</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.033858333333334</v>
+        <v>4.274320333333333</v>
       </c>
       <c r="N12">
-        <v>12.101575</v>
+        <v>12.822961</v>
       </c>
       <c r="O12">
-        <v>0.5954740512897225</v>
+        <v>0.617625980694349</v>
       </c>
       <c r="P12">
-        <v>0.5954740512897225</v>
+        <v>0.6176259806943489</v>
       </c>
       <c r="Q12">
-        <v>102.4443637425278</v>
+        <v>159.8259273179089</v>
       </c>
       <c r="R12">
-        <v>921.9992736827501</v>
+        <v>1438.43334586118</v>
       </c>
       <c r="S12">
-        <v>0.008894699103858681</v>
+        <v>0.01335878551875323</v>
       </c>
       <c r="T12">
-        <v>0.008894699103858683</v>
+        <v>0.01335878551875322</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.07663533333333333</v>
+        <v>0.03545833333333333</v>
       </c>
       <c r="N13">
-        <v>0.229906</v>
+        <v>0.106375</v>
       </c>
       <c r="O13">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322663</v>
       </c>
       <c r="P13">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322661</v>
       </c>
       <c r="Q13">
-        <v>1.946240377024445</v>
+        <v>1.325862491388889</v>
       </c>
       <c r="R13">
-        <v>17.51616339322</v>
+        <v>11.9327624225</v>
       </c>
       <c r="S13">
-        <v>0.0001689816980163106</v>
+        <v>0.0001108200211758715</v>
       </c>
       <c r="T13">
-        <v>0.0001689816980163106</v>
+        <v>0.0001108200211758715</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3530253333333334</v>
+        <v>0.300108</v>
       </c>
       <c r="N14">
-        <v>1.059076</v>
+        <v>0.900324</v>
       </c>
       <c r="O14">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="P14">
-        <v>0.05211323950342944</v>
+        <v>0.04336467165755702</v>
       </c>
       <c r="Q14">
-        <v>6.178232578756446</v>
+        <v>7.447830354036</v>
       </c>
       <c r="R14">
-        <v>55.60409320880801</v>
+        <v>67.030473186324</v>
       </c>
       <c r="S14">
-        <v>0.0005364230668639759</v>
+        <v>0.0006225145691269721</v>
       </c>
       <c r="T14">
-        <v>0.0005364230668639761</v>
+        <v>0.0006225145691269719</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.932033</v>
       </c>
       <c r="O15">
-        <v>0.3410998794937062</v>
+        <v>0.3338857288757714</v>
       </c>
       <c r="P15">
-        <v>0.3410998794937063</v>
+        <v>0.3338857288757713</v>
       </c>
       <c r="Q15">
-        <v>40.43875238190156</v>
+        <v>57.34447353683699</v>
       </c>
       <c r="R15">
-        <v>363.948771437114</v>
+        <v>516.100261831533</v>
       </c>
       <c r="S15">
-        <v>0.003511081736780257</v>
+        <v>0.004793042878084948</v>
       </c>
       <c r="T15">
-        <v>0.003511081736780258</v>
+        <v>0.004793042878084946</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.033858333333334</v>
+        <v>4.274320333333333</v>
       </c>
       <c r="N16">
-        <v>12.101575</v>
+        <v>12.822961</v>
       </c>
       <c r="O16">
-        <v>0.5954740512897225</v>
+        <v>0.617625980694349</v>
       </c>
       <c r="P16">
-        <v>0.5954740512897225</v>
+        <v>0.6176259806943489</v>
       </c>
       <c r="Q16">
-        <v>70.59582590792779</v>
+        <v>106.076521523829</v>
       </c>
       <c r="R16">
-        <v>635.3624331713501</v>
+        <v>954.688693714461</v>
       </c>
       <c r="S16">
-        <v>0.006129459996623869</v>
+        <v>0.008866230425765578</v>
       </c>
       <c r="T16">
-        <v>0.00612945999662387</v>
+        <v>0.008866230425765575</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.07663533333333333</v>
+        <v>0.03545833333333333</v>
       </c>
       <c r="N17">
-        <v>0.229906</v>
+        <v>0.106375</v>
       </c>
       <c r="O17">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322663</v>
       </c>
       <c r="P17">
-        <v>0.01131282971314188</v>
+        <v>0.005123618772322661</v>
       </c>
       <c r="Q17">
-        <v>1.341181123216445</v>
+        <v>0.8799753798750001</v>
       </c>
       <c r="R17">
-        <v>12.070630108948</v>
+        <v>7.919778418875</v>
       </c>
       <c r="S17">
-        <v>0.000116447621899117</v>
+        <v>7.355128519386541E-05</v>
       </c>
       <c r="T17">
-        <v>0.000116447621899117</v>
+        <v>7.355128519386536E-05</v>
       </c>
     </row>
   </sheetData>
